--- a/2024/shuffle-architecute/Teste10/content/results/metrics_6_2.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_6_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,223 +488,223 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_0</t>
+          <t>model_6_2_12</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9515018515261596</v>
+        <v>0.9467960199973564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7946884330335454</v>
+        <v>0.7430867151737901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9579827750429316</v>
+        <v>0.5457812252606699</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9890364672734779</v>
+        <v>0.95200322541656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9789299823373041</v>
+        <v>0.8096660857573694</v>
       </c>
       <c r="G2" t="n">
-        <v>0.203536331653595</v>
+        <v>0.2232857197523117</v>
       </c>
       <c r="H2" t="n">
-        <v>1.37291944026947</v>
+        <v>1.71798038482666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2981103360652924</v>
+        <v>1.204223275184631</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06863183528184891</v>
+        <v>0.131896048784256</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1833710521459579</v>
+        <v>0.6680596470832825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_1</t>
+          <t>model_6_2_11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9565230360566207</v>
+        <v>0.9469486281791636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7946701931279191</v>
+        <v>0.7417850446133993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9583394036828108</v>
+        <v>0.5527024516206684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9818537848007542</v>
+        <v>0.9518658942573133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9764920979132062</v>
+        <v>0.8122261432668885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1824635118246078</v>
+        <v>0.2226452678442001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.373041391372681</v>
+        <v>1.7266845703125</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2955800592899323</v>
+        <v>1.185873746871948</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1135955080389977</v>
+        <v>0.1322734504938126</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2045878171920776</v>
+        <v>0.659074068069458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_2</t>
+          <t>model_6_2_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9597424077240018</v>
+        <v>0.9470377512471436</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7938055763917723</v>
+        <v>0.7402906920187927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.957655179632615</v>
+        <v>0.5602599282169498</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9737182584981202</v>
+        <v>0.951704982043603</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9732872633361245</v>
+        <v>0.8150175579318324</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1689525097608566</v>
+        <v>0.2222712188959122</v>
       </c>
       <c r="H4" t="n">
-        <v>1.378823041915894</v>
+        <v>1.736677408218384</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3004346191883087</v>
+        <v>1.165837407112122</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1645239889621735</v>
+        <v>0.13271564245224</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2324793040752411</v>
+        <v>0.6492763161659241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_3</t>
+          <t>model_6_2_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9616018569215048</v>
+        <v>0.9470378219587522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7923321250636428</v>
+        <v>0.7385699892713525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9562545400556113</v>
+        <v>0.5684985740673461</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9650334801433904</v>
+        <v>0.9515161807609018</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9695928590492836</v>
+        <v>0.8180550819696872</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1611487716436386</v>
+        <v>0.2222709208726883</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388675928115845</v>
+        <v>1.748183608055115</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3103720843791962</v>
+        <v>1.14399516582489</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2188908010721207</v>
+        <v>0.1332344710826874</v>
       </c>
       <c r="K5" t="n">
-        <v>0.264631450176239</v>
+        <v>0.63861483335495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_4</t>
+          <t>model_6_2_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9624396345058572</v>
+        <v>0.9469160564489212</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7904351240901448</v>
+        <v>0.7365821624778147</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9543721420512483</v>
+        <v>0.5774615236677053</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9560950074419593</v>
+        <v>0.9512931368376133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9656108543478636</v>
+        <v>0.8213528224261922</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1576328128576279</v>
+        <v>0.2227819412946701</v>
       </c>
       <c r="H6" t="n">
-        <v>1.401361227035522</v>
+        <v>1.761476278305054</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3237276077270508</v>
+        <v>1.120232582092285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2748457491397858</v>
+        <v>0.1338474005460739</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2992866039276123</v>
+        <v>0.6270399689674377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_5</t>
+          <t>model_6_2_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9625166923538201</v>
+        <v>0.9466309099242114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7882581636072693</v>
+        <v>0.734277797382387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9521809268830687</v>
+        <v>0.5871923063569291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9471195213173309</v>
+        <v>0.9510289280164328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9614896403459892</v>
+        <v>0.8249245481062131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1573094129562378</v>
+        <v>0.2239786386489868</v>
       </c>
       <c r="H7" t="n">
-        <v>1.415918588638306</v>
+        <v>1.776885628700256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3392741680145264</v>
+        <v>1.094434380531311</v>
       </c>
       <c r="J7" t="n">
-        <v>0.331032395362854</v>
+        <v>0.1345734447240829</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3351532816886902</v>
+        <v>0.6145033836364746</v>
       </c>
     </row>
     <row r="8">
@@ -714,700 +714,256 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9620355243318454</v>
+        <v>0.9461298738431279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7859119995613554</v>
+        <v>0.7315966021582889</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9498093422372216</v>
+        <v>0.5977337638357726</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9382661810922862</v>
+        <v>0.9507139306134895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9573388504626276</v>
+        <v>0.8287823196948882</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1593287885189056</v>
+        <v>0.2260813862085342</v>
       </c>
       <c r="H8" t="n">
-        <v>1.431607484817505</v>
+        <v>1.794814825057983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3561004400253296</v>
+        <v>1.066486835479736</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3864544034004211</v>
+        <v>0.1354390680789948</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3712773621082306</v>
+        <v>0.6009629368782043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_7</t>
+          <t>model_6_2_5</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9611534842622271</v>
+        <v>0.9453465303698818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7834815789612155</v>
+        <v>0.7284648807575704</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9473531806608111</v>
+        <v>0.6091242375075234</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9296499352368659</v>
+        <v>0.9503370616119817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9532388474347109</v>
+        <v>0.8329365923774816</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1630305051803589</v>
+        <v>0.2293689101934433</v>
       </c>
       <c r="H9" t="n">
-        <v>1.447859644889832</v>
+        <v>1.815756559371948</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3735268115997314</v>
+        <v>1.036288499832153</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4403921961784363</v>
+        <v>0.1364747136831284</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4069594144821167</v>
+        <v>0.5863816738128662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_8</t>
+          <t>model_6_2_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9599926891124656</v>
+        <v>0.9441977971455811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7810313589323399</v>
+        <v>0.7247922678657033</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9448828419221076</v>
+        <v>0.6213993468525185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9213523635208305</v>
+        <v>0.9498838307950086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9492476667651751</v>
+        <v>0.8373951327256391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1679021269083023</v>
+        <v>0.23418989777565</v>
       </c>
       <c r="H10" t="n">
-        <v>1.464244365692139</v>
+        <v>1.840315461158752</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3910537660121918</v>
+        <v>1.003744721412659</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4923350811004639</v>
+        <v>0.1377201974391937</v>
       </c>
       <c r="K10" t="n">
-        <v>0.441694438457489</v>
+        <v>0.5707324743270874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_9</t>
+          <t>model_6_2_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9586477643801219</v>
+        <v>0.9425788582491458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7786096586235113</v>
+        <v>0.7204680135937458</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9424495792776241</v>
+        <v>0.6345838357785831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9134298637485176</v>
+        <v>0.9493362213656308</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9454065155299436</v>
+        <v>0.8421601855071887</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1735464930534363</v>
+        <v>0.2409842312335968</v>
       </c>
       <c r="H11" t="n">
-        <v>1.480438232421875</v>
+        <v>1.869231700897217</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4083176553249359</v>
+        <v>0.9687901139259338</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5419300198554993</v>
+        <v>0.139225035905838</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4751237332820892</v>
+        <v>0.5540074706077576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_10</t>
+          <t>model_6_2_2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9571916141601924</v>
+        <v>0.9403585550927352</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7762519442361318</v>
+        <v>0.7153570771780502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9400901235277791</v>
+        <v>0.6486867314025833</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9059187837685323</v>
+        <v>0.9486730718101717</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9417433795261764</v>
+        <v>0.8472268526307691</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1796576380729675</v>
+        <v>0.2503024041652679</v>
       </c>
       <c r="H12" t="n">
-        <v>1.496204376220703</v>
+        <v>1.903408527374268</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4250578880310059</v>
+        <v>0.9314005374908447</v>
       </c>
       <c r="J12" t="n">
-        <v>0.58894944190979</v>
+        <v>0.1410473883152008</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5070037841796875</v>
+        <v>0.5362237691879272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_11</t>
+          <t>model_6_2_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9556798952388937</v>
+        <v>0.9373718376979288</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7739836300186438</v>
+        <v>0.7092968972827816</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9378294255134073</v>
+        <v>0.6636836238876396</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8988404898084609</v>
+        <v>0.9478701577442242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9382761868807512</v>
+        <v>0.8525763639832871</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1860019862651825</v>
+        <v>0.2628370225429535</v>
       </c>
       <c r="H13" t="n">
-        <v>1.511372566223145</v>
+        <v>1.943933010101318</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4410974383354187</v>
+        <v>0.891640841960907</v>
       </c>
       <c r="J13" t="n">
-        <v>0.633259654045105</v>
+        <v>0.1432538032531738</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5371785163879395</v>
+        <v>0.5174473524093628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_2_12</t>
+          <t>model_6_2_0</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9541547263619272</v>
+        <v>0.9334114941073732</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7718220175538675</v>
+        <v>0.7020975254988968</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9356839113023533</v>
+        <v>0.6794926554012443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8922043905899294</v>
+        <v>0.9469034337262027</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9350149675076017</v>
+        <v>0.8581685395473113</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1924027949571609</v>
+        <v>0.279457688331604</v>
       </c>
       <c r="H14" t="n">
-        <v>1.525827288627625</v>
+        <v>1.992075324058533</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4563197791576385</v>
+        <v>0.8497279286384583</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6748017072677612</v>
+        <v>0.145910382270813</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5655606985092163</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_13</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9526473476272845</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.7697781952091558</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9336631934316858</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8860107043633826</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9319637274571895</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1987289488315582</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.539494276046753</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.4706566631793976</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7135742902755737</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.5921155214309692</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_14</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9511806324466876</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.76785828634711</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9317720181652143</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.8802528288669008</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9291220355630557</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2048844397068024</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.552332639694214</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4840744435787201</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7496186494827271</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.6168465614318848</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_15</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.949770738657311</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.766064661995645</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.930011464439415</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.8749187860638069</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9264860099492881</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2108014822006226</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.564326643943787</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.4965655207633972</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7830097675323486</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.6397876739501953</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_16</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9484284007976694</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.764396819517564</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.928379403259737</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8699924841866484</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9240490048496749</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2164349555969238</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.575479626655579</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.5081449747085571</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8138484954833984</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.6609967947006226</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_17</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9471605653538619</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7628521397901973</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9268723633766335</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8654555061411489</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9218029859047079</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2217558026313782</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.585808753967285</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.5188372731208801</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8422500491142273</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.6805437803268433</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_18</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9459707627758476</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.761426429912506</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9254850085208534</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8612871394096427</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9197383418732107</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2267491370439529</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.595342636108398</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.5286805629730225</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.8683440685272217</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.6985122561454773</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_19</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.944860302623526</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7601144360940623</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9242114671882187</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8574657633621847</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9178448503927699</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2314095050096512</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.604115962982178</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.5377162098884583</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8922659158706665</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.7149911522865295</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9438285656983698</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7589102114718566</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9230449016294753</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8539692875427186</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9161118356357985</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2357394993305206</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.612168550491333</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.5459930300712585</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.9141538739204407</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.7300735116004944</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9428738061680584</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7578073779834571</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.9219787197586838</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.8507757363481832</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.914528705431677</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.2397463917732239</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.619543075561523</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.5535575151443481</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9341455698013306</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.7438514232635498</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9419931939296311</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7567994248079304</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.9210060247571316</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8478632076695316</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9130847279318109</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.243442177772522</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.626283407211304</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.560458779335022</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9523780345916748</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.7564182281494141</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9411832948636778</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7558797519475046</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.9201198445909954</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.8452106843013614</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9117695090723427</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.2468411326408386</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.632433176040649</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.5667461752891541</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9689828157424927</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.7678645849227905</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_6_2_24</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.9404403497427003</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.7550418942838897</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.9193136394836231</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.8427981072871543</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9105732094080877</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.2499590814113617</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.638036012649536</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5724661350250244</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9840856194496155</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.7782757878303528</v>
+        <v>0.497819185256958</v>
       </c>
     </row>
   </sheetData>
